--- a/medicine/Handicap/Les_Yeux_d'Hélène/Les_Yeux_d'Hélène.xlsx
+++ b/medicine/Handicap/Les_Yeux_d'Hélène/Les_Yeux_d'Hélène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Yeux_d%27H%C3%A9l%C3%A8ne</t>
+          <t>Les_Yeux_d'Hélène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Yeux d'Hélène, sous-titré Les Cœurs brûlés 2[1], est une mini-série française en 9 épisodes de 100 minutes, réalisée par Jean Sagols sur un scénario de Jean-Pierre Jaubert et Reine Silbert, et diffusée à partir du 7 septembre 1994 sur TF1.
-Depuis le 4 octobre 2017, la mini-série est disponible gratuitement sur la chaîne YouTube Instant Saga[2] et sur la plateforme Pluto TV.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Yeux d'Hélène, sous-titré Les Cœurs brûlés 2, est une mini-série française en 9 épisodes de 100 minutes, réalisée par Jean Sagols sur un scénario de Jean-Pierre Jaubert et Reine Silbert, et diffusée à partir du 7 septembre 1994 sur TF1.
+Depuis le 4 octobre 2017, la mini-série est disponible gratuitement sur la chaîne YouTube Instant Saga et sur la plateforme Pluto TV.
 Cette mini-série est la deuxième partie des Cœurs brûlés (1992).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Yeux_d%27H%C3%A9l%C3%A8ne</t>
+          <t>Les_Yeux_d'Hélène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Trois ans ont passé depuis qu'Hélène a perdu la vue. Christian, Isa et son fils Tanguy s'apprêtent à revenir d'un long périple à la voile autour du monde. Malheureusement, près du golfe de Gênes, ils essuient une tempête. Isa se noie. C'est la consternation à « La Réserve ». Sa mère, Geneviève, désormais avec Arnaud, est inconsolable. Tanguy en perd la parole et Christian se réfugie dans la boisson.
 Hélène s'apprête à revenir à « La Réserve ». Informée de la rénovation onéreuse de celle-ci par sa fille Patricia et son frère Arnaud, elle décide de reprendre les rênes malgré sa cécité pour ne pas couler l'affaire de son ex-mari, Marc, disparu (voir Les Cœurs brûlés).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Yeux_d%27H%C3%A9l%C3%A8ne</t>
+          <t>Les_Yeux_d'Hélène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mireille Darc : Hélène Charrière
 Jean-Pierre Bouvier : Dominique et Frédéric Volvani
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Yeux_d%27H%C3%A9l%C3%A8ne</t>
+          <t>Les_Yeux_d'Hélène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La chanson du générique de début interprétée par Nicole Croisille (reprenant celle des Les Cœurs Brulés) et celle du générique de fin par Claire Keim (intitulée En rêvant).
 Claire Keim fait des débuts remarqués en « fille à papa pourrie gâtée ». Elle refera parler d'elle dix ans plus tard avec le feuilleton Zodiaque.
